--- a/Hobol/0660_4/CD/0660_4 Szolgalmi jog koord.xlsx
+++ b/Hobol/0660_4/CD/0660_4 Szolgalmi jog koord.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Munka\Hobol\0660_4\CD\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="7245" tabRatio="334"/>
   </bookViews>
@@ -18,12 +13,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$2</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
   <si>
     <t>Pontkód</t>
   </si>
@@ -112,12 +107,63 @@
   <si>
     <t>32/13/2019</t>
   </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>551512.180</t>
+  </si>
+  <si>
+    <t>74684.230</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>551489.180</t>
+  </si>
+  <si>
+    <t>74653.610</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>552109.670</t>
+  </si>
+  <si>
+    <t>74181.140</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>552109.540</t>
+  </si>
+  <si>
+    <t>74229.380</t>
+  </si>
+  <si>
+    <t>20000</t>
+  </si>
+  <si>
+    <t>551512.170</t>
+  </si>
+  <si>
+    <t>20003</t>
+  </si>
+  <si>
+    <t>74229.420</t>
+  </si>
+  <si>
+    <t>szántó széle</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -324,7 +370,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -356,10 +402,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -391,7 +436,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -567,14 +611,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AK95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="12" customWidth="1"/>
@@ -598,7 +642,7 @@
     <col min="37" max="37" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" s="4" customFormat="1" ht="14.25" customHeight="1">
       <c r="A1" s="5"/>
       <c r="B1" s="10" t="s">
         <v>1</v>
@@ -645,7 +689,7 @@
       <c r="AJ1" s="8"/>
       <c r="AK1" s="9"/>
     </row>
-    <row r="2" spans="1:37" s="2" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" s="2" customFormat="1" ht="9" customHeight="1">
       <c r="B2" s="12"/>
       <c r="C2" s="7"/>
       <c r="D2" s="13"/>
@@ -683,7 +727,7 @@
       <c r="AJ2" s="8"/>
       <c r="AK2" s="9"/>
     </row>
-    <row r="3" spans="1:37" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" s="3" customFormat="1" ht="25.5" customHeight="1">
       <c r="B3" s="27" t="s">
         <v>6</v>
       </c>
@@ -725,7 +769,7 @@
       <c r="AJ3" s="8"/>
       <c r="AK3" s="9"/>
     </row>
-    <row r="4" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B4" s="21"/>
       <c r="C4" s="21"/>
       <c r="D4" s="21"/>
@@ -763,7 +807,7 @@
       <c r="AJ4" s="8"/>
       <c r="AK4" s="9"/>
     </row>
-    <row r="5" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B5" s="24" t="s">
         <v>7</v>
       </c>
@@ -809,7 +853,7 @@
       <c r="AJ5" s="8"/>
       <c r="AK5" s="9"/>
     </row>
-    <row r="6" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B6" s="24" t="s">
         <v>9</v>
       </c>
@@ -848,7 +892,7 @@
       <c r="AJ6" s="8"/>
       <c r="AK6" s="9"/>
     </row>
-    <row r="7" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
@@ -879,7 +923,7 @@
       <c r="AJ7" s="8"/>
       <c r="AK7" s="9"/>
     </row>
-    <row r="8" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B8" s="12"/>
       <c r="C8" s="7"/>
       <c r="D8" s="13"/>
@@ -910,7 +954,7 @@
       <c r="AJ8" s="8"/>
       <c r="AK8" s="9"/>
     </row>
-    <row r="9" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B9" s="26" t="s">
         <v>5</v>
       </c>
@@ -943,7 +987,7 @@
       <c r="AJ9" s="8"/>
       <c r="AK9" s="9"/>
     </row>
-    <row r="10" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
       <c r="D10" s="16"/>
@@ -974,7 +1018,7 @@
       <c r="AJ10" s="8"/>
       <c r="AK10" s="9"/>
     </row>
-    <row r="11" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B11" s="24" t="s">
         <v>10</v>
       </c>
@@ -1013,7 +1057,7 @@
       <c r="AJ11" s="8"/>
       <c r="AK11" s="9"/>
     </row>
-    <row r="12" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B12" s="24" t="s">
         <v>12</v>
       </c>
@@ -1059,7 +1103,7 @@
       <c r="AJ12" s="8"/>
       <c r="AK12" s="9"/>
     </row>
-    <row r="13" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B13" s="24" t="s">
         <v>13</v>
       </c>
@@ -1105,7 +1149,7 @@
       <c r="AJ13" s="8"/>
       <c r="AK13" s="9"/>
     </row>
-    <row r="14" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B14" s="24" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1195,7 @@
       <c r="AJ14" s="8"/>
       <c r="AK14" s="9"/>
     </row>
-    <row r="15" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
@@ -1189,7 +1233,7 @@
       <c r="AJ15" s="8"/>
       <c r="AK15" s="9"/>
     </row>
-    <row r="16" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" s="3" customFormat="1" ht="14.25" customHeight="1">
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
@@ -1227,7 +1271,7 @@
       <c r="AJ16" s="8"/>
       <c r="AK16" s="9"/>
     </row>
-    <row r="17" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:37" ht="14.25" customHeight="1">
       <c r="G17" s="13"/>
       <c r="H17" s="7"/>
       <c r="W17" s="24"/>
@@ -1235,7 +1279,7 @@
       <c r="Y17" s="24"/>
       <c r="Z17" s="24"/>
     </row>
-    <row r="18" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:37" ht="14.25" customHeight="1">
       <c r="G18" s="13"/>
       <c r="H18" s="7"/>
       <c r="W18" s="24"/>
@@ -1243,7 +1287,7 @@
       <c r="Y18" s="24"/>
       <c r="Z18" s="24"/>
     </row>
-    <row r="19" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:37" ht="14.25" customHeight="1">
       <c r="G19" s="13"/>
       <c r="H19" s="7"/>
       <c r="W19" s="24"/>
@@ -1251,7 +1295,7 @@
       <c r="Y19" s="24"/>
       <c r="Z19" s="24"/>
     </row>
-    <row r="20" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:37" ht="14.25" customHeight="1">
       <c r="G20" s="13"/>
       <c r="H20" s="7"/>
       <c r="W20" s="24"/>
@@ -1259,7 +1303,7 @@
       <c r="Y20" s="24"/>
       <c r="Z20" s="24"/>
     </row>
-    <row r="21" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:37" ht="14.25" customHeight="1">
       <c r="G21" s="13"/>
       <c r="H21" s="7"/>
       <c r="W21" s="24"/>
@@ -1267,7 +1311,7 @@
       <c r="Y21" s="24"/>
       <c r="Z21" s="24"/>
     </row>
-    <row r="22" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:37" ht="14.25" customHeight="1">
       <c r="B22" s="26" t="s">
         <v>4</v>
       </c>
@@ -1289,7 +1333,7 @@
       <c r="AJ22"/>
       <c r="AK22"/>
     </row>
-    <row r="23" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:37" ht="14.25" customHeight="1">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -1309,193 +1353,259 @@
       <c r="AJ23"/>
       <c r="AK23"/>
     </row>
-    <row r="24" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:37" ht="14.25" customHeight="1">
+      <c r="B24" s="24" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" s="21"/>
+      <c r="D24" s="24" t="s">
+        <v>29</v>
+      </c>
       <c r="E24" s="21"/>
+      <c r="F24" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="G24" s="21"/>
-      <c r="H24" s="7"/>
+      <c r="H24" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="W24" s="24"/>
       <c r="X24" s="24"/>
       <c r="Y24" s="24"/>
       <c r="Z24" s="24"/>
     </row>
-    <row r="25" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:37" ht="14.25" customHeight="1">
+      <c r="B25" s="24" t="s">
+        <v>31</v>
+      </c>
       <c r="C25" s="21"/>
+      <c r="D25" s="24" t="s">
+        <v>32</v>
+      </c>
       <c r="E25" s="21"/>
+      <c r="F25" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="G25" s="21"/>
-      <c r="H25" s="7"/>
+      <c r="H25" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="W25" s="24"/>
       <c r="X25" s="24"/>
       <c r="Y25" s="24"/>
       <c r="Z25" s="24"/>
     </row>
-    <row r="26" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:37" ht="14.25" customHeight="1">
+      <c r="B26" s="24" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="21"/>
+      <c r="D26" s="24" t="s">
+        <v>35</v>
+      </c>
       <c r="E26" s="21"/>
+      <c r="F26" s="24" t="s">
+        <v>36</v>
+      </c>
       <c r="G26" s="21"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="W26" s="24"/>
       <c r="X26" s="24"/>
       <c r="Y26" s="24"/>
       <c r="Z26" s="24"/>
     </row>
-    <row r="27" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:37" ht="14.25" customHeight="1">
+      <c r="B27" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C27" s="21"/>
+      <c r="D27" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="E27" s="21"/>
+      <c r="F27" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="G27" s="21"/>
-      <c r="H27" s="7"/>
+      <c r="H27" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="W27" s="24"/>
       <c r="X27" s="24"/>
       <c r="Y27" s="24"/>
       <c r="Z27" s="24"/>
     </row>
-    <row r="28" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:37" ht="14.25" customHeight="1">
+      <c r="B28" s="24" t="s">
+        <v>40</v>
+      </c>
       <c r="C28" s="21"/>
+      <c r="D28" s="24" t="s">
+        <v>41</v>
+      </c>
       <c r="E28" s="21"/>
+      <c r="F28" s="24" t="s">
+        <v>30</v>
+      </c>
       <c r="G28" s="21"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="2:37" ht="14.25" customHeight="1">
+      <c r="B29" s="24" t="s">
+        <v>42</v>
+      </c>
       <c r="C29" s="22"/>
+      <c r="D29" s="24" t="s">
+        <v>38</v>
+      </c>
       <c r="E29" s="22"/>
+      <c r="F29" s="24" t="s">
+        <v>43</v>
+      </c>
       <c r="G29" s="22"/>
-      <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H29" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:37" ht="14.25" customHeight="1">
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:37" ht="14.25" customHeight="1">
       <c r="C31" s="23"/>
       <c r="E31" s="23"/>
       <c r="G31" s="23"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="2:37" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:37" ht="14.25" customHeight="1">
       <c r="C32" s="19"/>
       <c r="E32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:8" ht="14.25" customHeight="1">
       <c r="G33" s="13"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:8" ht="14.25" customHeight="1">
       <c r="G34" s="13"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8" ht="14.25" customHeight="1">
       <c r="G35" s="13"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:8" ht="14.25" customHeight="1">
       <c r="G36" s="13"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:8" ht="14.25" customHeight="1">
       <c r="G37" s="13"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:8" ht="14.25" customHeight="1">
       <c r="C38" s="20"/>
       <c r="E38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8" ht="14.25" customHeight="1">
       <c r="C39" s="18"/>
       <c r="E39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:8" ht="14.25" customHeight="1">
       <c r="C40" s="17"/>
       <c r="E40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:8" ht="14.25" customHeight="1">
       <c r="C41" s="17"/>
       <c r="E41" s="17"/>
       <c r="G41" s="17"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:8" ht="14.25" customHeight="1">
       <c r="C42" s="17"/>
       <c r="E42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:8" ht="14.25" customHeight="1">
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:8" ht="14.25" customHeight="1">
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:8" ht="14.25" customHeight="1">
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:8" ht="14.25" customHeight="1">
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:8" ht="14.25" customHeight="1">
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="3:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:8" ht="14.25" customHeight="1">
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="8:8" ht="14.25" customHeight="1">
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="8:8" ht="14.25" customHeight="1">
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="8:8" ht="14.25" customHeight="1">
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="8:8" ht="14.25" customHeight="1">
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="8:8" ht="14.25" customHeight="1">
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="8:8" ht="14.25" customHeight="1">
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="8:8" ht="14.25" customHeight="1">
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="8:8" ht="14.25" customHeight="1">
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="8:8" ht="14.25" customHeight="1">
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="8:8" ht="14.25" customHeight="1">
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="8:8" ht="14.25" customHeight="1">
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="8:8" ht="14.25" customHeight="1">
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="8:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="8:8" ht="14.25" customHeight="1">
       <c r="H61" s="7"/>
     </row>
-    <row r="91" spans="32:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="32:32" ht="14.25" customHeight="1">
       <c r="AF91" s="1"/>
     </row>
-    <row r="92" spans="32:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="32:32" ht="14.25" customHeight="1">
       <c r="AF92" s="1"/>
     </row>
-    <row r="93" spans="32:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="32:32" ht="14.25" customHeight="1">
       <c r="AF93" s="1"/>
     </row>
-    <row r="94" spans="32:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="32:32" ht="14.25" customHeight="1">
       <c r="AF94" s="1"/>
     </row>
-    <row r="95" spans="32:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="32:32" ht="14.25" customHeight="1">
       <c r="AF95" s="1"/>
     </row>
   </sheetData>
@@ -1516,12 +1626,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
